--- a/src/main/java/BusinessLogics/ExcelData/ThrucareData.xlsx
+++ b/src/main/java/BusinessLogics/ExcelData/ThrucareData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhildhumane\IdeaProjects\ThruCareHealthCare\src\main\java\BusinessLogics\ExcelData\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Password</t>
   </si>
@@ -42,41 +42,16 @@
     <t>ThrucareURL</t>
   </si>
   <si>
-    <t>Verdell</t>
-  </si>
-  <si>
-    <t>@yopmail.com</t>
-  </si>
-  <si>
-    <t>Clara</t>
-  </si>
-  <si>
-    <t>Clara@yopmail.com</t>
-  </si>
-  <si>
-    <t>Jewel</t>
-  </si>
-  <si>
-    <t>Jewel@yopmail.com</t>
-  </si>
-  <si>
-    <t>Tamatha</t>
-  </si>
-  <si>
-    <t>Tamatha@yopmail.com</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>Trinity@yopmail.com</t>
+    <t>Reyna</t>
+  </si>
+  <si>
+    <t>Reyna@yopmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,21 +382,21 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="17.7109375"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -435,12 +410,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="14.5703125"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -454,13 +430,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>14</v>
-      </c>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/BusinessLogics/ExcelData/ThrucareData.xlsx
+++ b/src/main/java/BusinessLogics/ExcelData/ThrucareData.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="urlDetails" sheetId="2" r:id="rId1"/>
     <sheet name="UserLoginDetails" sheetId="1" r:id="rId2"/>
+    <sheet name="ProviderDetails" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Password</t>
   </si>
@@ -42,10 +43,49 @@
     <t>ThrucareURL</t>
   </si>
   <si>
-    <t>Reyna</t>
-  </si>
-  <si>
-    <t>Reyna@yopmail.com</t>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>Elfreda</t>
+  </si>
+  <si>
+    <t>Elfreda@yopmail.com</t>
+  </si>
+  <si>
+    <t>ElfredaMiddleName</t>
+  </si>
+  <si>
+    <t>Goldner</t>
+  </si>
+  <si>
+    <t>10/01/2025</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>(029) 265-8509</t>
   </si>
 </sst>
 </file>
@@ -382,7 +422,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,15 +471,84 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
       </c>
       <c r="C2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>